--- a/uploads/output_ON_NSCHFDOPPR_20250525_22be7677_06a4_4683_8d14_f2194cbf3b94_0_1.xlsx
+++ b/uploads/output_ON_NSCHFDOPPR_20250525_22be7677_06a4_4683_8d14_f2194cbf3b94_0_1.xlsx
@@ -1283,12 +1283,12 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>40802810808500027392</t>
+          <t>40802810808500026313</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>44525104</t>
+          <t>044525104</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -1315,7 +1315,7 @@
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>128063645</t>
+          <t>0128063645</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr"/>
@@ -1373,7 +1373,7 @@
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>128063645</t>
+          <t>0128063645</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -1419,12 +1419,12 @@
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>40802810906000023552</t>
+          <t>40802810906000022771</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>44030920</t>
+          <t>044030920</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr"/>
